--- a/fs_mol/outputs/test/plots/support_16/highlighted_comparison.xlsx
+++ b/fs_mol/outputs/test/plots/support_16/highlighted_comparison.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="728">
   <si>
     <t>TASK_ID</t>
   </si>
@@ -1685,6 +1685,519 @@
   </si>
   <si>
     <t>0.954+/-0.084</t>
+  </si>
+  <si>
+    <t>0.8+/-0.274</t>
+  </si>
+  <si>
+    <t>0.994+/-0.011</t>
+  </si>
+  <si>
+    <t>0.99+/-0.022</t>
+  </si>
+  <si>
+    <t>0.404+/-0.087</t>
+  </si>
+  <si>
+    <t>0.794+/-0.014</t>
+  </si>
+  <si>
+    <t>0.967+/-0.075</t>
+  </si>
+  <si>
+    <t>0.9+/-0.224</t>
+  </si>
+  <si>
+    <t>0.531+/-0.144</t>
+  </si>
+  <si>
+    <t>0.915+/-0.042</t>
+  </si>
+  <si>
+    <t>0.61+/-0.11</t>
+  </si>
+  <si>
+    <t>0.723+/-0.144</t>
+  </si>
+  <si>
+    <t>0.8+/-0.225</t>
+  </si>
+  <si>
+    <t>0.868+/-0.157</t>
+  </si>
+  <si>
+    <t>0.598+/-0.106</t>
+  </si>
+  <si>
+    <t>0.53+/-0.162</t>
+  </si>
+  <si>
+    <t>0.765+/-0.078</t>
+  </si>
+  <si>
+    <t>0.769+/-0.112</t>
+  </si>
+  <si>
+    <t>0.433+/-0.091</t>
+  </si>
+  <si>
+    <t>0.487+/-0.079</t>
+  </si>
+  <si>
+    <t>0.8+/-0.217</t>
+  </si>
+  <si>
+    <t>0.885+/-0.076</t>
+  </si>
+  <si>
+    <t>0.617+/-0.113</t>
+  </si>
+  <si>
+    <t>0.846+/-0.086</t>
+  </si>
+  <si>
+    <t>0.634+/-0.117</t>
+  </si>
+  <si>
+    <t>0.917+/-0.186</t>
+  </si>
+  <si>
+    <t>0.834+/-0.198</t>
+  </si>
+  <si>
+    <t>0.721+/-0.114</t>
+  </si>
+  <si>
+    <t>0.522+/-0.151</t>
+  </si>
+  <si>
+    <t>0.433+/-0.32</t>
+  </si>
+  <si>
+    <t>0.585+/-0.112</t>
+  </si>
+  <si>
+    <t>0.918+/-0.129</t>
+  </si>
+  <si>
+    <t>0.909+/-0.133</t>
+  </si>
+  <si>
+    <t>0.989+/-0.026</t>
+  </si>
+  <si>
+    <t>0.42+/-0.116</t>
+  </si>
+  <si>
+    <t>0.473+/-0.109</t>
+  </si>
+  <si>
+    <t>0.295+/-0.078</t>
+  </si>
+  <si>
+    <t>0.788+/-0.1</t>
+  </si>
+  <si>
+    <t>0.809+/-0.143</t>
+  </si>
+  <si>
+    <t>0.646+/-0.147</t>
+  </si>
+  <si>
+    <t>0.673+/-0.109</t>
+  </si>
+  <si>
+    <t>0.599+/-0.123</t>
+  </si>
+  <si>
+    <t>0.911+/-0.052</t>
+  </si>
+  <si>
+    <t>0.967+/-0.033</t>
+  </si>
+  <si>
+    <t>0.711+/-0.132</t>
+  </si>
+  <si>
+    <t>0.488+/-0.095</t>
+  </si>
+  <si>
+    <t>0.627+/-0.104</t>
+  </si>
+  <si>
+    <t>0.873+/-0.046</t>
+  </si>
+  <si>
+    <t>0.604+/-0.143</t>
+  </si>
+  <si>
+    <t>0.822+/-0.076</t>
+  </si>
+  <si>
+    <t>0.901+/-0.084</t>
+  </si>
+  <si>
+    <t>0.521+/-0.097</t>
+  </si>
+  <si>
+    <t>0.872+/-0.1</t>
+  </si>
+  <si>
+    <t>0.62+/-0.053</t>
+  </si>
+  <si>
+    <t>0.357+/-0.143</t>
+  </si>
+  <si>
+    <t>0.633+/-0.342</t>
+  </si>
+  <si>
+    <t>0.972+/-0.02</t>
+  </si>
+  <si>
+    <t>0.939+/-0.049</t>
+  </si>
+  <si>
+    <t>0.772+/-0.043</t>
+  </si>
+  <si>
+    <t>0.28+/-0.108</t>
+  </si>
+  <si>
+    <t>0.51+/-0.031</t>
+  </si>
+  <si>
+    <t>0.833+/-0.177</t>
+  </si>
+  <si>
+    <t>0.82+/-0.145</t>
+  </si>
+  <si>
+    <t>0.962+/-0.044</t>
+  </si>
+  <si>
+    <t>0.937+/-0.048</t>
+  </si>
+  <si>
+    <t>0.711+/-0.096</t>
+  </si>
+  <si>
+    <t>0.76+/-0.099</t>
+  </si>
+  <si>
+    <t>0.22+/-0.086</t>
+  </si>
+  <si>
+    <t>0.987+/-0.018</t>
+  </si>
+  <si>
+    <t>0.767+/-0.325</t>
+  </si>
+  <si>
+    <t>0.547+/-0.188</t>
+  </si>
+  <si>
+    <t>0.885+/-0.117</t>
+  </si>
+  <si>
+    <t>0.558+/-0.412</t>
+  </si>
+  <si>
+    <t>0.683+/-0.231</t>
+  </si>
+  <si>
+    <t>0.697+/-0.17</t>
+  </si>
+  <si>
+    <t>0.696+/-0.077</t>
+  </si>
+  <si>
+    <t>0.965+/-0.021</t>
+  </si>
+  <si>
+    <t>0.911+/-0.069</t>
+  </si>
+  <si>
+    <t>0.618+/-0.239</t>
+  </si>
+  <si>
+    <t>0.542+/-0.136</t>
+  </si>
+  <si>
+    <t>0.603+/-0.12</t>
+  </si>
+  <si>
+    <t>0.5+/-0.137</t>
+  </si>
+  <si>
+    <t>0.901+/-0.178</t>
+  </si>
+  <si>
+    <t>0.785+/-0.034</t>
+  </si>
+  <si>
+    <t>0.584+/-0.084</t>
+  </si>
+  <si>
+    <t>0.724+/-0.2</t>
+  </si>
+  <si>
+    <t>0.832+/-0.099</t>
+  </si>
+  <si>
+    <t>0.838+/-0.061</t>
+  </si>
+  <si>
+    <t>0.684+/-0.09</t>
+  </si>
+  <si>
+    <t>0.94+/-0.058</t>
+  </si>
+  <si>
+    <t>0.576+/-0.133</t>
+  </si>
+  <si>
+    <t>0.9+/-0.043</t>
+  </si>
+  <si>
+    <t>0.682+/-0.087</t>
+  </si>
+  <si>
+    <t>0.61+/-0.053</t>
+  </si>
+  <si>
+    <t>0.92+/-0.017</t>
+  </si>
+  <si>
+    <t>0.493+/-0.098</t>
+  </si>
+  <si>
+    <t>0.847+/-0.075</t>
+  </si>
+  <si>
+    <t>0.922+/-0.107</t>
+  </si>
+  <si>
+    <t>0.883+/-0.183</t>
+  </si>
+  <si>
+    <t>0.633+/-0.267</t>
+  </si>
+  <si>
+    <t>0.681+/-0.192</t>
+  </si>
+  <si>
+    <t>0.947+/-0.047</t>
+  </si>
+  <si>
+    <t>0.993+/-0.015</t>
+  </si>
+  <si>
+    <t>0.86+/-0.114</t>
+  </si>
+  <si>
+    <t>0.978+/-0.05</t>
+  </si>
+  <si>
+    <t>0.792+/-0.119</t>
+  </si>
+  <si>
+    <t>0.856+/-0.068</t>
+  </si>
+  <si>
+    <t>0.667+/-0.312</t>
+  </si>
+  <si>
+    <t>0.885+/-0.064</t>
+  </si>
+  <si>
+    <t>0.625+/-0.083</t>
+  </si>
+  <si>
+    <t>0.52+/-0.044</t>
+  </si>
+  <si>
+    <t>0.759+/-0.084</t>
+  </si>
+  <si>
+    <t>0.735+/-0.061</t>
+  </si>
+  <si>
+    <t>0.874+/-0.089</t>
+  </si>
+  <si>
+    <t>0.975+/-0.055</t>
+  </si>
+  <si>
+    <t>0.962+/-0.042</t>
+  </si>
+  <si>
+    <t>0.759+/-0.115</t>
+  </si>
+  <si>
+    <t>0.701+/-0.149</t>
+  </si>
+  <si>
+    <t>0.825+/-0.082</t>
+  </si>
+  <si>
+    <t>0.723+/-0.042</t>
+  </si>
+  <si>
+    <t>0.63+/-0.092</t>
+  </si>
+  <si>
+    <t>0.729+/-0.069</t>
+  </si>
+  <si>
+    <t>0.647+/-0.098</t>
+  </si>
+  <si>
+    <t>0.64+/-0.073</t>
+  </si>
+  <si>
+    <t>0.484+/-0.072</t>
+  </si>
+  <si>
+    <t>0.608+/-0.081</t>
+  </si>
+  <si>
+    <t>0.968+/-0.023</t>
+  </si>
+  <si>
+    <t>0.7+/-0.274</t>
+  </si>
+  <si>
+    <t>0.738+/-0.07</t>
+  </si>
+  <si>
+    <t>0.987+/-0.005</t>
+  </si>
+  <si>
+    <t>0.561+/-0.06</t>
+  </si>
+  <si>
+    <t>0.811+/-0.064</t>
+  </si>
+  <si>
+    <t>0.514+/-0.053</t>
+  </si>
+  <si>
+    <t>0.631+/-0.062</t>
+  </si>
+  <si>
+    <t>0.106+/-0.003</t>
+  </si>
+  <si>
+    <t>0.334+/-0.079</t>
+  </si>
+  <si>
+    <t>0.701+/-0.038</t>
+  </si>
+  <si>
+    <t>0.611+/-0.071</t>
+  </si>
+  <si>
+    <t>0.628+/-0.101</t>
+  </si>
+  <si>
+    <t>0.726+/-0.09</t>
+  </si>
+  <si>
+    <t>0.864+/-0.168</t>
+  </si>
+  <si>
+    <t>0.791+/-0.072</t>
+  </si>
+  <si>
+    <t>0.552+/-0.056</t>
+  </si>
+  <si>
+    <t>0.918+/-0.085</t>
+  </si>
+  <si>
+    <t>0.716+/-0.12</t>
+  </si>
+  <si>
+    <t>0.67+/-0.112</t>
+  </si>
+  <si>
+    <t>0.695+/-0.137</t>
+  </si>
+  <si>
+    <t>0.739+/-0.093</t>
+  </si>
+  <si>
+    <t>0.685+/-0.087</t>
+  </si>
+  <si>
+    <t>0.878+/-0.138</t>
+  </si>
+  <si>
+    <t>0.529+/-0.045</t>
+  </si>
+  <si>
+    <t>0.833+/-0.228</t>
+  </si>
+  <si>
+    <t>0.713+/-0.117</t>
+  </si>
+  <si>
+    <t>0.689+/-0.111</t>
+  </si>
+  <si>
+    <t>0.881+/-0.121</t>
+  </si>
+  <si>
+    <t>0.367+/-0.075</t>
+  </si>
+  <si>
+    <t>0.786+/-0.056</t>
+  </si>
+  <si>
+    <t>0.715+/-0.057</t>
+  </si>
+  <si>
+    <t>0.78+/-0.302</t>
+  </si>
+  <si>
+    <t>0.72+/-0.097</t>
+  </si>
+  <si>
+    <t>0.651+/-0.092</t>
+  </si>
+  <si>
+    <t>0.921+/-0.021</t>
+  </si>
+  <si>
+    <t>0.485+/-0.073</t>
+  </si>
+  <si>
+    <t>0.95+/-0.112</t>
+  </si>
+  <si>
+    <t>0.863+/-0.038</t>
+  </si>
+  <si>
+    <t>0.822+/-0.023</t>
+  </si>
+  <si>
+    <t>0.785+/-0.093</t>
+  </si>
+  <si>
+    <t>0.729+/-0.115</t>
+  </si>
+  <si>
+    <t>0.735+/-0.06</t>
+  </si>
+  <si>
+    <t>0.899+/-0.146</t>
+  </si>
+  <si>
+    <t>0.769+/-0.171</t>
+  </si>
+  <si>
+    <t>0.901+/-0.158</t>
   </si>
 </sst>
 </file>
@@ -2104,7 +2617,7 @@
         <v>386</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>386</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2123,14 +2636,14 @@
       <c r="E3" s="2">
         <v>0.8571428571428571</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>203</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>387</v>
+      <c r="H3" s="3" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2175,14 +2688,14 @@
       <c r="E5" s="2">
         <v>0.8</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>205</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>389</v>
+      <c r="H5" s="3" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2207,8 +2720,8 @@
       <c r="G6" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>390</v>
+      <c r="H6" s="2" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2234,7 +2747,7 @@
         <v>391</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>391</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2256,11 +2769,11 @@
       <c r="F8" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>392</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>392</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2285,8 +2798,8 @@
       <c r="G9" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>224</v>
+      <c r="H9" s="3" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2308,11 +2821,11 @@
       <c r="F10" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>393</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>393</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2338,7 +2851,7 @@
         <v>394</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>394</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2363,8 +2876,8 @@
       <c r="G12" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>395</v>
+      <c r="H12" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2390,7 +2903,7 @@
         <v>396</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>396</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2416,7 +2929,7 @@
         <v>397</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>397</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2435,14 +2948,14 @@
       <c r="E15" s="2">
         <v>0.5</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>215</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>398</v>
+      <c r="H15" s="3" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2464,11 +2977,11 @@
       <c r="F16" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>399</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>399</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2487,14 +3000,14 @@
       <c r="E17" s="2">
         <v>0.5</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>217</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>400</v>
+      <c r="H17" s="3" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2519,8 +3032,8 @@
       <c r="G18" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>401</v>
+      <c r="H18" s="2" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2542,11 +3055,11 @@
       <c r="F19" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>402</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>402</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2568,11 +3081,11 @@
       <c r="F20" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>403</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>403</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2598,7 +3111,7 @@
         <v>404</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>404</v>
+        <v>573</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2649,8 +3162,8 @@
       <c r="G23" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>405</v>
+      <c r="H23" s="2" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2676,7 +3189,7 @@
         <v>406</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>406</v>
+        <v>575</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2695,14 +3208,14 @@
       <c r="E25" s="2">
         <v>0.5</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="2" t="s">
         <v>224</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2727,8 +3240,8 @@
       <c r="G26" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>407</v>
+      <c r="H26" s="2" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2747,14 +3260,14 @@
       <c r="E27" s="2">
         <v>0.625</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>408</v>
+      <c r="H27" s="3" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2779,8 +3292,8 @@
       <c r="G28" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>409</v>
+      <c r="H28" s="2" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2806,7 +3319,7 @@
         <v>410</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>410</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2831,8 +3344,8 @@
       <c r="G30" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>411</v>
+      <c r="H30" s="2" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2851,14 +3364,14 @@
       <c r="E31" s="2">
         <v>0.4</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>230</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>412</v>
+      <c r="H31" s="3" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2877,14 +3390,14 @@
       <c r="E32" s="2">
         <v>0.4</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="2" t="s">
         <v>231</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>231</v>
+        <v>581</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2903,14 +3416,14 @@
       <c r="E33" s="2">
         <v>0.5</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>232</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>413</v>
+      <c r="H33" s="3" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2929,14 +3442,14 @@
       <c r="E34" s="2">
         <v>0.5</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>233</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>414</v>
+      <c r="H34" s="3" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2961,8 +3474,8 @@
       <c r="G35" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>415</v>
+      <c r="H35" s="2" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2988,7 +3501,7 @@
         <v>416</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>416</v>
+        <v>585</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3013,8 +3526,8 @@
       <c r="G37" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>417</v>
+      <c r="H37" s="2" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3039,8 +3552,8 @@
       <c r="G38" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>418</v>
+      <c r="H38" s="2" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3066,7 +3579,7 @@
         <v>419</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>419</v>
+        <v>588</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3092,7 +3605,7 @@
         <v>420</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>420</v>
+        <v>589</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3118,7 +3631,7 @@
         <v>421</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>421</v>
+        <v>590</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3144,7 +3657,7 @@
         <v>422</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>422</v>
+        <v>591</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3169,8 +3682,8 @@
       <c r="G43" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>423</v>
+      <c r="H43" s="2" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3195,8 +3708,8 @@
       <c r="G44" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>209</v>
+      <c r="H44" s="2" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3221,8 +3734,8 @@
       <c r="G45" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>319</v>
+      <c r="H45" s="2" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3248,7 +3761,7 @@
         <v>424</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>424</v>
+        <v>593</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3274,7 +3787,7 @@
         <v>425</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>425</v>
+        <v>594</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3300,7 +3813,7 @@
         <v>426</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>426</v>
+        <v>595</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3319,14 +3832,14 @@
       <c r="E49" s="2">
         <v>0.5</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="2" t="s">
         <v>247</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>427</v>
+      <c r="H49" s="3" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3352,7 +3865,7 @@
         <v>428</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>428</v>
+        <v>597</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3371,14 +3884,14 @@
       <c r="E51" s="2">
         <v>0.8648648648648649</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="2" t="s">
         <v>249</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>429</v>
+      <c r="H51" s="3" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3404,7 +3917,7 @@
         <v>430</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>430</v>
+        <v>599</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3430,7 +3943,7 @@
         <v>431</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>431</v>
+        <v>600</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3456,7 +3969,7 @@
         <v>432</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>432</v>
+        <v>601</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3508,7 +4021,7 @@
         <v>433</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>433</v>
+        <v>602</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3527,14 +4040,14 @@
       <c r="E57" s="2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="2" t="s">
         <v>254</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>209</v>
+      <c r="H57" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3560,7 +4073,7 @@
         <v>434</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>434</v>
+        <v>603</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3586,7 +4099,7 @@
         <v>435</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>435</v>
+        <v>604</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3605,14 +4118,14 @@
       <c r="E60" s="2">
         <v>0.48</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="2" t="s">
         <v>257</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>436</v>
+      <c r="H60" s="3" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3638,7 +4151,7 @@
         <v>437</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>437</v>
+        <v>606</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3663,8 +4176,8 @@
       <c r="G62" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>438</v>
+      <c r="H62" s="2" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3683,14 +4196,14 @@
       <c r="E63" s="2">
         <v>0.5</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="2" t="s">
         <v>260</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>439</v>
+      <c r="H63" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3716,7 +4229,7 @@
         <v>440</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>440</v>
+        <v>608</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3742,7 +4255,7 @@
         <v>441</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>441</v>
+        <v>609</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3767,8 +4280,8 @@
       <c r="G66" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>442</v>
+      <c r="H66" s="2" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3793,8 +4306,8 @@
       <c r="G67" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>235</v>
+      <c r="H67" s="2" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3820,7 +4333,7 @@
         <v>443</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>443</v>
+        <v>612</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3846,7 +4359,7 @@
         <v>444</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>444</v>
+        <v>613</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3872,7 +4385,7 @@
         <v>445</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>445</v>
+        <v>614</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3894,11 +4407,11 @@
       <c r="F71" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G71" s="2" t="s">
         <v>446</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>446</v>
+        <v>615</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3924,7 +4437,7 @@
         <v>447</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>447</v>
+        <v>616</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3943,14 +4456,14 @@
       <c r="E73" s="2">
         <v>0.5</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="H73" s="2" t="s">
-        <v>448</v>
+      <c r="H73" s="3" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3976,7 +4489,7 @@
         <v>449</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>449</v>
+        <v>618</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3998,11 +4511,11 @@
       <c r="F75" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" s="2" t="s">
         <v>450</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>450</v>
+        <v>619</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4028,7 +4541,7 @@
         <v>451</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>451</v>
+        <v>620</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4047,14 +4560,14 @@
       <c r="E77" s="2">
         <v>0.5</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F77" s="2" t="s">
         <v>274</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="H77" s="2" t="s">
-        <v>452</v>
+      <c r="H77" s="3" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4076,11 +4589,11 @@
       <c r="F78" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G78" s="2" t="s">
         <v>453</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>453</v>
+        <v>622</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4102,11 +4615,11 @@
       <c r="F79" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G79" s="2" t="s">
         <v>454</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>454</v>
+        <v>623</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4132,7 +4645,7 @@
         <v>455</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>455</v>
+        <v>624</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4157,8 +4670,8 @@
       <c r="G81" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>209</v>
+      <c r="H81" s="2" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4180,11 +4693,11 @@
       <c r="F82" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="G82" s="2" t="s">
         <v>339</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>339</v>
+        <v>557</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4206,11 +4719,11 @@
       <c r="F83" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="G83" s="2" t="s">
         <v>456</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>456</v>
+        <v>562</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4236,7 +4749,7 @@
         <v>457</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>457</v>
+        <v>626</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4262,7 +4775,7 @@
         <v>458</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>458</v>
+        <v>627</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4281,14 +4794,14 @@
       <c r="E86" s="2">
         <v>0.0714285714285714</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="2" t="s">
         <v>283</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="H86" s="2" t="s">
-        <v>459</v>
+      <c r="H86" s="3" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4313,8 +4826,8 @@
       <c r="G87" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="H87" s="3" t="s">
-        <v>460</v>
+      <c r="H87" s="2" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4336,11 +4849,11 @@
       <c r="F88" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G88" s="2" t="s">
         <v>461</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>461</v>
+        <v>630</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4366,7 +4879,7 @@
         <v>462</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>462</v>
+        <v>631</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4385,14 +4898,14 @@
       <c r="E90" s="2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F90" s="2" t="s">
         <v>287</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="H90" s="2" t="s">
-        <v>463</v>
+      <c r="H90" s="3" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4411,14 +4924,14 @@
       <c r="E91" s="2">
         <v>0.5</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="F91" s="2" t="s">
         <v>288</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="H91" s="2" t="s">
-        <v>464</v>
+      <c r="H91" s="3" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4437,14 +4950,14 @@
       <c r="E92" s="2">
         <v>0.75</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F92" s="2" t="s">
         <v>289</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="H92" s="2" t="s">
-        <v>465</v>
+      <c r="H92" s="3" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4470,7 +4983,7 @@
         <v>466</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>466</v>
+        <v>634</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4496,7 +5009,7 @@
         <v>467</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>467</v>
+        <v>635</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4522,7 +5035,7 @@
         <v>468</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>468</v>
+        <v>636</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4544,11 +5057,11 @@
       <c r="F96" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="G96" s="2" t="s">
         <v>469</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>469</v>
+        <v>637</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4574,7 +5087,7 @@
         <v>470</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>470</v>
+        <v>638</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4600,7 +5113,7 @@
         <v>471</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>471</v>
+        <v>639</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4626,7 +5139,7 @@
         <v>472</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>472</v>
+        <v>640</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4645,14 +5158,14 @@
       <c r="E100" s="2">
         <v>0.4444444444444445</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F100" s="2" t="s">
         <v>297</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="H100" s="2" t="s">
-        <v>473</v>
+      <c r="H100" s="3" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4678,7 +5191,7 @@
         <v>474</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>474</v>
+        <v>642</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4704,7 +5217,7 @@
         <v>475</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>475</v>
+        <v>643</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4730,7 +5243,7 @@
         <v>476</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>476</v>
+        <v>644</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4749,14 +5262,14 @@
       <c r="E104" s="2">
         <v>0.5</v>
       </c>
-      <c r="F104" s="3" t="s">
+      <c r="F104" s="2" t="s">
         <v>301</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="H104" s="2" t="s">
-        <v>477</v>
+      <c r="H104" s="3" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4775,14 +5288,14 @@
       <c r="E105" s="2">
         <v>0.4545454545454545</v>
       </c>
-      <c r="F105" s="3" t="s">
+      <c r="F105" s="2" t="s">
         <v>302</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="H105" s="2" t="s">
-        <v>478</v>
+      <c r="H105" s="3" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4807,8 +5320,8 @@
       <c r="G106" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="H106" s="3" t="s">
-        <v>479</v>
+      <c r="H106" s="2" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4830,11 +5343,11 @@
       <c r="F107" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="G107" s="2" t="s">
         <v>480</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>480</v>
+        <v>648</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4853,14 +5366,14 @@
       <c r="E108" s="2">
         <v>0.4651162790697674</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="F108" s="2" t="s">
         <v>305</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H108" s="2" t="s">
-        <v>481</v>
+      <c r="H108" s="3" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4879,14 +5392,14 @@
       <c r="E109" s="2">
         <v>0.8</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="F109" s="2" t="s">
         <v>306</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="H109" s="2" t="s">
-        <v>482</v>
+      <c r="H109" s="3" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4912,7 +5425,7 @@
         <v>483</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>483</v>
+        <v>651</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4937,8 +5450,8 @@
       <c r="G111" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="H111" s="3" t="s">
-        <v>484</v>
+      <c r="H111" s="2" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4964,7 +5477,7 @@
         <v>485</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>485</v>
+        <v>653</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4990,7 +5503,7 @@
         <v>486</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>486</v>
+        <v>654</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5015,8 +5528,8 @@
       <c r="G114" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="H114" s="3" t="s">
-        <v>487</v>
+      <c r="H114" s="2" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5041,8 +5554,8 @@
       <c r="G115" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="H115" s="3" t="s">
-        <v>488</v>
+      <c r="H115" s="2" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5064,11 +5577,11 @@
       <c r="F116" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="G116" s="3" t="s">
+      <c r="G116" s="2" t="s">
         <v>489</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>489</v>
+        <v>657</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5090,11 +5603,11 @@
       <c r="F117" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="G117" s="3" t="s">
+      <c r="G117" s="2" t="s">
         <v>490</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>490</v>
+        <v>658</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5120,7 +5633,7 @@
         <v>491</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>491</v>
+        <v>659</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5146,7 +5659,7 @@
         <v>492</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>492</v>
+        <v>660</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5172,7 +5685,7 @@
         <v>493</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>493</v>
+        <v>661</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5197,8 +5710,8 @@
       <c r="G121" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="H121" s="3" t="s">
-        <v>254</v>
+      <c r="H121" s="2" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5224,7 +5737,7 @@
         <v>463</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>463</v>
+        <v>574</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5249,8 +5762,8 @@
       <c r="G123" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="H123" s="3" t="s">
-        <v>494</v>
+      <c r="H123" s="2" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5276,7 +5789,7 @@
         <v>339</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>339</v>
+        <v>663</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5298,11 +5811,11 @@
       <c r="F125" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="G125" s="3" t="s">
+      <c r="G125" s="2" t="s">
         <v>495</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>495</v>
+        <v>664</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5328,7 +5841,7 @@
         <v>224</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>224</v>
+        <v>557</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5353,8 +5866,8 @@
       <c r="G127" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="H127" s="3" t="s">
-        <v>496</v>
+      <c r="H127" s="2" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5379,8 +5892,8 @@
       <c r="G128" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="H128" s="3" t="s">
-        <v>497</v>
+      <c r="H128" s="2" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5406,7 +5919,7 @@
         <v>498</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>498</v>
+        <v>667</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5431,8 +5944,8 @@
       <c r="G130" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="H130" s="3" t="s">
-        <v>499</v>
+      <c r="H130" s="2" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5451,14 +5964,14 @@
       <c r="E131" s="2">
         <v>0.6428571428571429</v>
       </c>
-      <c r="F131" s="3" t="s">
+      <c r="F131" s="2" t="s">
         <v>325</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="H131" s="2" t="s">
-        <v>500</v>
+      <c r="H131" s="3" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5480,11 +5993,11 @@
       <c r="F132" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="G132" s="3" t="s">
+      <c r="G132" s="2" t="s">
         <v>455</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>455</v>
+        <v>670</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5506,11 +6019,11 @@
       <c r="F133" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="G133" s="2" t="s">
         <v>501</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>501</v>
+        <v>671</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5535,8 +6048,8 @@
       <c r="G134" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="H134" s="3" t="s">
-        <v>502</v>
+      <c r="H134" s="2" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5562,7 +6075,7 @@
         <v>503</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>503</v>
+        <v>673</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5587,8 +6100,8 @@
       <c r="G136" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="H136" s="3" t="s">
-        <v>504</v>
+      <c r="H136" s="2" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5610,11 +6123,11 @@
       <c r="F137" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="G137" s="3" t="s">
+      <c r="G137" s="2" t="s">
         <v>505</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>505</v>
+        <v>675</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5639,8 +6152,8 @@
       <c r="G138" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="H138" s="3" t="s">
-        <v>506</v>
+      <c r="H138" s="2" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5665,8 +6178,8 @@
       <c r="G139" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="H139" s="3" t="s">
-        <v>507</v>
+      <c r="H139" s="2" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5692,7 +6205,7 @@
         <v>508</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>508</v>
+        <v>678</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5711,14 +6224,14 @@
       <c r="E141" s="2">
         <v>0.5</v>
       </c>
-      <c r="F141" s="3" t="s">
+      <c r="F141" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G141" s="3" t="s">
+      <c r="G141" s="2" t="s">
         <v>279</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>279</v>
+        <v>557</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5744,7 +6257,7 @@
         <v>509</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>509</v>
+        <v>679</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5769,8 +6282,8 @@
       <c r="G143" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="H143" s="2" t="s">
-        <v>510</v>
+      <c r="H143" s="3" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5789,14 +6302,14 @@
       <c r="E144" s="2">
         <v>0.5</v>
       </c>
-      <c r="F144" s="3" t="s">
+      <c r="F144" s="2" t="s">
         <v>337</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="H144" s="2" t="s">
-        <v>511</v>
+      <c r="H144" s="3" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5822,7 +6335,7 @@
         <v>512</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>512</v>
+        <v>682</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5841,14 +6354,14 @@
       <c r="E146" s="2">
         <v>0.5</v>
       </c>
-      <c r="F146" s="3" t="s">
+      <c r="F146" s="2" t="s">
         <v>254</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="H146" s="2" t="s">
-        <v>260</v>
+      <c r="H146" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5874,7 +6387,7 @@
         <v>439</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>439</v>
+        <v>683</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5900,7 +6413,7 @@
         <v>513</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>513</v>
+        <v>684</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5922,11 +6435,11 @@
       <c r="F149" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="G149" s="3" t="s">
+      <c r="G149" s="2" t="s">
         <v>514</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>514</v>
+        <v>685</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5952,7 +6465,7 @@
         <v>515</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>515</v>
+        <v>686</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5978,7 +6491,7 @@
         <v>516</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>516</v>
+        <v>687</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6003,8 +6516,8 @@
       <c r="G152" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="H152" s="3" t="s">
-        <v>517</v>
+      <c r="H152" s="2" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6026,11 +6539,11 @@
       <c r="F153" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="G153" s="3" t="s">
+      <c r="G153" s="2" t="s">
         <v>518</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>518</v>
+        <v>689</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6055,8 +6568,8 @@
       <c r="G154" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="H154" s="3" t="s">
-        <v>519</v>
+      <c r="H154" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6082,7 +6595,7 @@
         <v>520</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>520</v>
+        <v>691</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6101,14 +6614,14 @@
       <c r="E156" s="2">
         <v>0.409090909090909</v>
       </c>
-      <c r="F156" s="3" t="s">
+      <c r="F156" s="2" t="s">
         <v>348</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="H156" s="2" t="s">
-        <v>521</v>
+      <c r="H156" s="3" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6133,8 +6646,8 @@
       <c r="G157" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="H157" s="3" t="s">
-        <v>522</v>
+      <c r="H157" s="2" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6159,8 +6672,8 @@
       <c r="G158" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="H158" s="3" t="s">
-        <v>523</v>
+      <c r="H158" s="2" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6179,14 +6692,14 @@
       <c r="E159" s="2">
         <v>0.5</v>
       </c>
-      <c r="F159" s="3" t="s">
+      <c r="F159" s="2" t="s">
         <v>351</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="H159" s="2" t="s">
-        <v>524</v>
+      <c r="H159" s="3" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6212,7 +6725,7 @@
         <v>525</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>525</v>
+        <v>696</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6231,14 +6744,14 @@
       <c r="E161" s="2">
         <v>0.4857142857142856</v>
       </c>
-      <c r="F161" s="3" t="s">
+      <c r="F161" s="2" t="s">
         <v>353</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="H161" s="2" t="s">
-        <v>526</v>
+      <c r="H161" s="3" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6264,7 +6777,7 @@
         <v>527</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>527</v>
+        <v>698</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6283,14 +6796,14 @@
       <c r="E163" s="2">
         <v>0.5</v>
       </c>
-      <c r="F163" s="3" t="s">
+      <c r="F163" s="2" t="s">
         <v>355</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="H163" s="2" t="s">
-        <v>528</v>
+      <c r="H163" s="3" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6316,7 +6829,7 @@
         <v>529</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>529</v>
+        <v>700</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6342,7 +6855,7 @@
         <v>530</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>530</v>
+        <v>701</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6368,7 +6881,7 @@
         <v>531</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>531</v>
+        <v>702</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6387,14 +6900,14 @@
       <c r="E167" s="2">
         <v>0.4782608695652174</v>
       </c>
-      <c r="F167" s="3" t="s">
+      <c r="F167" s="2" t="s">
         <v>359</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="H167" s="2" t="s">
-        <v>532</v>
+      <c r="H167" s="3" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6420,7 +6933,7 @@
         <v>533</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>533</v>
+        <v>704</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6445,8 +6958,8 @@
       <c r="G169" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="H169" s="2" t="s">
-        <v>209</v>
+      <c r="H169" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6465,14 +6978,14 @@
       <c r="E170" s="2">
         <v>0.75</v>
       </c>
-      <c r="F170" s="3" t="s">
+      <c r="F170" s="2" t="s">
         <v>361</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="H170" s="2" t="s">
-        <v>534</v>
+      <c r="H170" s="3" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6498,7 +7011,7 @@
         <v>535</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>535</v>
+        <v>706</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6517,14 +7030,14 @@
       <c r="E172" s="2">
         <v>0.4</v>
       </c>
-      <c r="F172" s="3" t="s">
+      <c r="F172" s="2" t="s">
         <v>363</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="H172" s="2" t="s">
-        <v>536</v>
+      <c r="H172" s="3" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6546,11 +7059,11 @@
       <c r="F173" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G173" s="3" t="s">
+      <c r="G173" s="2" t="s">
         <v>537</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>537</v>
+        <v>708</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6576,7 +7089,7 @@
         <v>538</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>538</v>
+        <v>709</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6598,11 +7111,11 @@
       <c r="F175" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="G175" s="3" t="s">
+      <c r="G175" s="2" t="s">
         <v>539</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>539</v>
+        <v>710</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6627,8 +7140,8 @@
       <c r="G176" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="H176" s="3" t="s">
-        <v>540</v>
+      <c r="H176" s="2" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6654,7 +7167,7 @@
         <v>541</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>541</v>
+        <v>712</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6680,7 +7193,7 @@
         <v>542</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>542</v>
+        <v>713</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6706,7 +7219,7 @@
         <v>543</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>543</v>
+        <v>714</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6725,14 +7238,14 @@
       <c r="E180" s="2">
         <v>0.4615384615384615</v>
       </c>
-      <c r="F180" s="3" t="s">
+      <c r="F180" s="2" t="s">
         <v>371</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="H180" s="2" t="s">
-        <v>544</v>
+      <c r="H180" s="3" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6758,7 +7271,7 @@
         <v>545</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>545</v>
+        <v>716</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6780,11 +7293,11 @@
       <c r="F182" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="G182" s="3" t="s">
+      <c r="G182" s="2" t="s">
         <v>546</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>546</v>
+        <v>717</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6809,8 +7322,8 @@
       <c r="G183" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="H183" s="3" t="s">
-        <v>547</v>
+      <c r="H183" s="2" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6829,14 +7342,14 @@
       <c r="E184" s="2">
         <v>0.5</v>
       </c>
-      <c r="F184" s="3" t="s">
+      <c r="F184" s="2" t="s">
         <v>375</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="H184" s="2" t="s">
-        <v>548</v>
+      <c r="H184" s="3" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6862,7 +7375,7 @@
         <v>260</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>260</v>
+        <v>683</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6884,11 +7397,11 @@
       <c r="F186" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G186" s="3" t="s">
+      <c r="G186" s="2" t="s">
         <v>549</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>549</v>
+        <v>720</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6910,11 +7423,11 @@
       <c r="F187" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G187" s="3" t="s">
+      <c r="G187" s="2" t="s">
         <v>405</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>405</v>
+        <v>563</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6936,11 +7449,11 @@
       <c r="F188" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="G188" s="3" t="s">
+      <c r="G188" s="2" t="s">
         <v>550</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>550</v>
+        <v>721</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6959,14 +7472,14 @@
       <c r="E189" s="2">
         <v>0.4857142857142856</v>
       </c>
-      <c r="F189" s="3" t="s">
+      <c r="F189" s="2" t="s">
         <v>379</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="H189" s="2" t="s">
-        <v>551</v>
+      <c r="H189" s="3" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6991,8 +7504,8 @@
       <c r="G190" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="H190" s="3" t="s">
-        <v>552</v>
+      <c r="H190" s="2" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7018,7 +7531,7 @@
         <v>553</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>553</v>
+        <v>724</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7043,8 +7556,8 @@
       <c r="G192" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="H192" s="3" t="s">
-        <v>554</v>
+      <c r="H192" s="2" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7089,14 +7602,14 @@
       <c r="E194" s="2">
         <v>0.5</v>
       </c>
-      <c r="F194" s="3" t="s">
+      <c r="F194" s="2" t="s">
         <v>384</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="H194" s="2" t="s">
-        <v>555</v>
+      <c r="H194" s="3" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7122,7 +7635,7 @@
         <v>209</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>209</v>
+        <v>563</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7147,8 +7660,8 @@
       <c r="G196" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="H196" s="3" t="s">
-        <v>556</v>
+      <c r="H196" s="2" t="s">
+        <v>727</v>
       </c>
     </row>
   </sheetData>

--- a/fs_mol/outputs/test/plots/support_16/highlighted_comparison.xlsx
+++ b/fs_mol/outputs/test/plots/support_16/highlighted_comparison.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="1065">
   <si>
     <t>TASK_ID</t>
   </si>
@@ -37,6 +37,12 @@
     <t>16_train (RF)</t>
   </si>
   <si>
+    <t>16_train (GNN-MT-O)</t>
+  </si>
+  <si>
+    <t>16_train (PN-O)</t>
+  </si>
+  <si>
     <t>1033643</t>
   </si>
   <si>
@@ -2198,6 +2204,1011 @@
   </si>
   <si>
     <t>0.901+/-0.158</t>
+  </si>
+  <si>
+    <t>0.98+/-0.03</t>
+  </si>
+  <si>
+    <t>0.998+/-0.003</t>
+  </si>
+  <si>
+    <t>0.409+/-0.119</t>
+  </si>
+  <si>
+    <t>0.838+/-0.045</t>
+  </si>
+  <si>
+    <t>0.892+/-0.167</t>
+  </si>
+  <si>
+    <t>0.608+/-0.152</t>
+  </si>
+  <si>
+    <t>0.932+/-0.06</t>
+  </si>
+  <si>
+    <t>0.771+/-0.186</t>
+  </si>
+  <si>
+    <t>0.617+/-0.077</t>
+  </si>
+  <si>
+    <t>0.765+/-0.097</t>
+  </si>
+  <si>
+    <t>0.827+/-0.073</t>
+  </si>
+  <si>
+    <t>0.879+/-0.112</t>
+  </si>
+  <si>
+    <t>0.647+/-0.127</t>
+  </si>
+  <si>
+    <t>0.614+/-0.153</t>
+  </si>
+  <si>
+    <t>0.551+/-0.146</t>
+  </si>
+  <si>
+    <t>0.628+/-0.113</t>
+  </si>
+  <si>
+    <t>0.759+/-0.141</t>
+  </si>
+  <si>
+    <t>0.833+/-0.272</t>
+  </si>
+  <si>
+    <t>0.537+/-0.178</t>
+  </si>
+  <si>
+    <t>0.783+/-0.246</t>
+  </si>
+  <si>
+    <t>0.858+/-0.089</t>
+  </si>
+  <si>
+    <t>0.657+/-0.127</t>
+  </si>
+  <si>
+    <t>0.864+/-0.092</t>
+  </si>
+  <si>
+    <t>0.704+/-0.11</t>
+  </si>
+  <si>
+    <t>0.865+/-0.126</t>
+  </si>
+  <si>
+    <t>0.682+/-0.186</t>
+  </si>
+  <si>
+    <t>0.823+/-0.188</t>
+  </si>
+  <si>
+    <t>0.733+/-0.134</t>
+  </si>
+  <si>
+    <t>0.631+/-0.162</t>
+  </si>
+  <si>
+    <t>0.508+/-0.282</t>
+  </si>
+  <si>
+    <t>0.64+/-0.083</t>
+  </si>
+  <si>
+    <t>0.968+/-0.061</t>
+  </si>
+  <si>
+    <t>0.76+/-0.141</t>
+  </si>
+  <si>
+    <t>0.946+/-0.047</t>
+  </si>
+  <si>
+    <t>0.512+/-0.159</t>
+  </si>
+  <si>
+    <t>0.505+/-0.125</t>
+  </si>
+  <si>
+    <t>0.272+/-0.056</t>
+  </si>
+  <si>
+    <t>0.633+/-0.258</t>
+  </si>
+  <si>
+    <t>0.8+/-0.089</t>
+  </si>
+  <si>
+    <t>0.813+/-0.091</t>
+  </si>
+  <si>
+    <t>0.647+/-0.094</t>
+  </si>
+  <si>
+    <t>0.652+/-0.101</t>
+  </si>
+  <si>
+    <t>0.64+/-0.111</t>
+  </si>
+  <si>
+    <t>0.874+/-0.076</t>
+  </si>
+  <si>
+    <t>0.851+/-0.125</t>
+  </si>
+  <si>
+    <t>0.64+/-0.09</t>
+  </si>
+  <si>
+    <t>0.615+/-0.186</t>
+  </si>
+  <si>
+    <t>0.577+/-0.069</t>
+  </si>
+  <si>
+    <t>0.761+/-0.079</t>
+  </si>
+  <si>
+    <t>0.625+/-0.13</t>
+  </si>
+  <si>
+    <t>0.692+/-0.092</t>
+  </si>
+  <si>
+    <t>0.937+/-0.062</t>
+  </si>
+  <si>
+    <t>0.549+/-0.102</t>
+  </si>
+  <si>
+    <t>0.76+/-0.049</t>
+  </si>
+  <si>
+    <t>0.786+/-0.079</t>
+  </si>
+  <si>
+    <t>0.272+/-0.059</t>
+  </si>
+  <si>
+    <t>0.871+/-0.069</t>
+  </si>
+  <si>
+    <t>0.83+/-0.077</t>
+  </si>
+  <si>
+    <t>0.793+/-0.071</t>
+  </si>
+  <si>
+    <t>0.161+/-0.035</t>
+  </si>
+  <si>
+    <t>0.533+/-0.079</t>
+  </si>
+  <si>
+    <t>0.708+/-0.307</t>
+  </si>
+  <si>
+    <t>0.632+/-0.134</t>
+  </si>
+  <si>
+    <t>0.855+/-0.083</t>
+  </si>
+  <si>
+    <t>0.866+/-0.051</t>
+  </si>
+  <si>
+    <t>0.603+/-0.101</t>
+  </si>
+  <si>
+    <t>0.712+/-0.096</t>
+  </si>
+  <si>
+    <t>0.206+/-0.196</t>
+  </si>
+  <si>
+    <t>0.897+/-0.113</t>
+  </si>
+  <si>
+    <t>0.808+/-0.201</t>
+  </si>
+  <si>
+    <t>0.428+/-0.162</t>
+  </si>
+  <si>
+    <t>0.968+/-0.047</t>
+  </si>
+  <si>
+    <t>0.311+/-0.459</t>
+  </si>
+  <si>
+    <t>0.725+/-0.212</t>
+  </si>
+  <si>
+    <t>0.423+/-0.112</t>
+  </si>
+  <si>
+    <t>0.599+/-0.066</t>
+  </si>
+  <si>
+    <t>0.641+/-0.131</t>
+  </si>
+  <si>
+    <t>0.781+/-0.136</t>
+  </si>
+  <si>
+    <t>0.598+/-0.127</t>
+  </si>
+  <si>
+    <t>0.482+/-0.105</t>
+  </si>
+  <si>
+    <t>0.526+/-0.07</t>
+  </si>
+  <si>
+    <t>0.376+/-0.139</t>
+  </si>
+  <si>
+    <t>0.801+/-0.139</t>
+  </si>
+  <si>
+    <t>0.765+/-0.084</t>
+  </si>
+  <si>
+    <t>0.593+/-0.118</t>
+  </si>
+  <si>
+    <t>0.625+/-0.131</t>
+  </si>
+  <si>
+    <t>0.686+/-0.141</t>
+  </si>
+  <si>
+    <t>0.702+/-0.115</t>
+  </si>
+  <si>
+    <t>0.579+/-0.096</t>
+  </si>
+  <si>
+    <t>0.675+/-0.144</t>
+  </si>
+  <si>
+    <t>0.55+/-0.121</t>
+  </si>
+  <si>
+    <t>0.852+/-0.045</t>
+  </si>
+  <si>
+    <t>0.667+/-0.122</t>
+  </si>
+  <si>
+    <t>0.589+/-0.099</t>
+  </si>
+  <si>
+    <t>0.876+/-0.051</t>
+  </si>
+  <si>
+    <t>0.483+/-0.12</t>
+  </si>
+  <si>
+    <t>0.859+/-0.08</t>
+  </si>
+  <si>
+    <t>0.9+/-0.119</t>
+  </si>
+  <si>
+    <t>0.75+/-0.212</t>
+  </si>
+  <si>
+    <t>0.816+/-0.122</t>
+  </si>
+  <si>
+    <t>0.896+/-0.093</t>
+  </si>
+  <si>
+    <t>0.94+/-0.094</t>
+  </si>
+  <si>
+    <t>0.888+/-0.113</t>
+  </si>
+  <si>
+    <t>0.868+/-0.113</t>
+  </si>
+  <si>
+    <t>0.811+/-0.076</t>
+  </si>
+  <si>
+    <t>0.483+/-0.2</t>
+  </si>
+  <si>
+    <t>0.77+/-0.09</t>
+  </si>
+  <si>
+    <t>0.733+/-0.285</t>
+  </si>
+  <si>
+    <t>0.843+/-0.13</t>
+  </si>
+  <si>
+    <t>0.591+/-0.094</t>
+  </si>
+  <si>
+    <t>0.557+/-0.075</t>
+  </si>
+  <si>
+    <t>0.641+/-0.096</t>
+  </si>
+  <si>
+    <t>0.759+/-0.108</t>
+  </si>
+  <si>
+    <t>0.741+/-0.049</t>
+  </si>
+  <si>
+    <t>0.956+/-0.077</t>
+  </si>
+  <si>
+    <t>0.872+/-0.09</t>
+  </si>
+  <si>
+    <t>0.886+/-0.094</t>
+  </si>
+  <si>
+    <t>0.684+/-0.113</t>
+  </si>
+  <si>
+    <t>0.65+/-0.2</t>
+  </si>
+  <si>
+    <t>0.583+/-0.173</t>
+  </si>
+  <si>
+    <t>0.58+/-0.116</t>
+  </si>
+  <si>
+    <t>0.799+/-0.072</t>
+  </si>
+  <si>
+    <t>0.686+/-0.136</t>
+  </si>
+  <si>
+    <t>0.646+/-0.082</t>
+  </si>
+  <si>
+    <t>0.494+/-0.087</t>
+  </si>
+  <si>
+    <t>0.585+/-0.107</t>
+  </si>
+  <si>
+    <t>0.893+/-0.075</t>
+  </si>
+  <si>
+    <t>0.6+/-0.211</t>
+  </si>
+  <si>
+    <t>0.689+/-0.051</t>
+  </si>
+  <si>
+    <t>0.967+/-0.018</t>
+  </si>
+  <si>
+    <t>0.627+/-0.156</t>
+  </si>
+  <si>
+    <t>0.824+/-0.044</t>
+  </si>
+  <si>
+    <t>0.476+/-0.106</t>
+  </si>
+  <si>
+    <t>0.509+/-0.094</t>
+  </si>
+  <si>
+    <t>0.201+/-0.084</t>
+  </si>
+  <si>
+    <t>0.35+/-0.058</t>
+  </si>
+  <si>
+    <t>0.496+/-0.078</t>
+  </si>
+  <si>
+    <t>0.566+/-0.069</t>
+  </si>
+  <si>
+    <t>0.528+/-0.058</t>
+  </si>
+  <si>
+    <t>0.559+/-0.094</t>
+  </si>
+  <si>
+    <t>0.58+/-0.121</t>
+  </si>
+  <si>
+    <t>0.586+/-0.027</t>
+  </si>
+  <si>
+    <t>0.59+/-0.096</t>
+  </si>
+  <si>
+    <t>0.829+/-0.174</t>
+  </si>
+  <si>
+    <t>0.681+/-0.06</t>
+  </si>
+  <si>
+    <t>0.57+/-0.062</t>
+  </si>
+  <si>
+    <t>0.578+/-0.051</t>
+  </si>
+  <si>
+    <t>0.542+/-0.085</t>
+  </si>
+  <si>
+    <t>0.533+/-0.03</t>
+  </si>
+  <si>
+    <t>0.894+/-0.105</t>
+  </si>
+  <si>
+    <t>0.496+/-0.101</t>
+  </si>
+  <si>
+    <t>0.626+/-0.231</t>
+  </si>
+  <si>
+    <t>0.57+/-0.15</t>
+  </si>
+  <si>
+    <t>0.61+/-0.13</t>
+  </si>
+  <si>
+    <t>0.813+/-0.095</t>
+  </si>
+  <si>
+    <t>0.809+/-0.12</t>
+  </si>
+  <si>
+    <t>0.681+/-0.059</t>
+  </si>
+  <si>
+    <t>0.551+/-0.176</t>
+  </si>
+  <si>
+    <t>0.485+/-0.107</t>
+  </si>
+  <si>
+    <t>0.669+/-0.085</t>
+  </si>
+  <si>
+    <t>0.907+/-0.032</t>
+  </si>
+  <si>
+    <t>0.52+/-0.07</t>
+  </si>
+  <si>
+    <t>0.875+/-0.113</t>
+  </si>
+  <si>
+    <t>0.869+/-0.121</t>
+  </si>
+  <si>
+    <t>0.583+/-0.297</t>
+  </si>
+  <si>
+    <t>0.862+/-0.07</t>
+  </si>
+  <si>
+    <t>0.728+/-0.083</t>
+  </si>
+  <si>
+    <t>0.725+/-0.109</t>
+  </si>
+  <si>
+    <t>0.738+/-0.106</t>
+  </si>
+  <si>
+    <t>0.871+/-0.139</t>
+  </si>
+  <si>
+    <t>0.739+/-0.159</t>
+  </si>
+  <si>
+    <t>0.819+/-0.105</t>
+  </si>
+  <si>
+    <t>0.995+/-0.005</t>
+  </si>
+  <si>
+    <t>0.388+/-0.083</t>
+  </si>
+  <si>
+    <t>0.928+/-0.027</t>
+  </si>
+  <si>
+    <t>0.933+/-0.086</t>
+  </si>
+  <si>
+    <t>0.525+/-0.083</t>
+  </si>
+  <si>
+    <t>0.926+/-0.018</t>
+  </si>
+  <si>
+    <t>0.697+/-0.118</t>
+  </si>
+  <si>
+    <t>0.833+/-0.065</t>
+  </si>
+  <si>
+    <t>0.818+/-0.118</t>
+  </si>
+  <si>
+    <t>0.997+/-0.011</t>
+  </si>
+  <si>
+    <t>0.902+/-0.062</t>
+  </si>
+  <si>
+    <t>0.5+/-0.058</t>
+  </si>
+  <si>
+    <t>0.632+/-0.169</t>
+  </si>
+  <si>
+    <t>0.776+/-0.097</t>
+  </si>
+  <si>
+    <t>0.939+/-0.05</t>
+  </si>
+  <si>
+    <t>0.433+/-0.086</t>
+  </si>
+  <si>
+    <t>0.509+/-0.125</t>
+  </si>
+  <si>
+    <t>0.858+/-0.208</t>
+  </si>
+  <si>
+    <t>0.727+/-0.079</t>
+  </si>
+  <si>
+    <t>0.558+/-0.109</t>
+  </si>
+  <si>
+    <t>0.954+/-0.037</t>
+  </si>
+  <si>
+    <t>0.649+/-0.107</t>
+  </si>
+  <si>
+    <t>0.865+/-0.159</t>
+  </si>
+  <si>
+    <t>0.842+/-0.203</t>
+  </si>
+  <si>
+    <t>0.932+/-0.051</t>
+  </si>
+  <si>
+    <t>0.523+/-0.114</t>
+  </si>
+  <si>
+    <t>0.617+/-0.341</t>
+  </si>
+  <si>
+    <t>0.632+/-0.08</t>
+  </si>
+  <si>
+    <t>0.96+/-0.06</t>
+  </si>
+  <si>
+    <t>0.954+/-0.049</t>
+  </si>
+  <si>
+    <t>0.958+/-0.036</t>
+  </si>
+  <si>
+    <t>0.566+/-0.225</t>
+  </si>
+  <si>
+    <t>0.52+/-0.123</t>
+  </si>
+  <si>
+    <t>0.277+/-0.069</t>
+  </si>
+  <si>
+    <t>0.85+/-0.049</t>
+  </si>
+  <si>
+    <t>0.86+/-0.108</t>
+  </si>
+  <si>
+    <t>0.651+/-0.121</t>
+  </si>
+  <si>
+    <t>0.664+/-0.082</t>
+  </si>
+  <si>
+    <t>0.672+/-0.063</t>
+  </si>
+  <si>
+    <t>0.937+/-0.021</t>
+  </si>
+  <si>
+    <t>0.98+/-0.02</t>
+  </si>
+  <si>
+    <t>0.754+/-0.124</t>
+  </si>
+  <si>
+    <t>0.577+/-0.119</t>
+  </si>
+  <si>
+    <t>0.701+/-0.1</t>
+  </si>
+  <si>
+    <t>0.872+/-0.08</t>
+  </si>
+  <si>
+    <t>0.713+/-0.092</t>
+  </si>
+  <si>
+    <t>0.735+/-0.072</t>
+  </si>
+  <si>
+    <t>0.946+/-0.061</t>
+  </si>
+  <si>
+    <t>0.536+/-0.097</t>
+  </si>
+  <si>
+    <t>0.923+/-0.049</t>
+  </si>
+  <si>
+    <t>0.712+/-0.078</t>
+  </si>
+  <si>
+    <t>0.33+/-0.042</t>
+  </si>
+  <si>
+    <t>0.978+/-0.021</t>
+  </si>
+  <si>
+    <t>0.957+/-0.034</t>
+  </si>
+  <si>
+    <t>0.811+/-0.066</t>
+  </si>
+  <si>
+    <t>0.261+/-0.127</t>
+  </si>
+  <si>
+    <t>0.491+/-0.044</t>
+  </si>
+  <si>
+    <t>0.925+/-0.169</t>
+  </si>
+  <si>
+    <t>0.82+/-0.17</t>
+  </si>
+  <si>
+    <t>0.973+/-0.035</t>
+  </si>
+  <si>
+    <t>0.946+/-0.027</t>
+  </si>
+  <si>
+    <t>0.693+/-0.08</t>
+  </si>
+  <si>
+    <t>0.728+/-0.115</t>
+  </si>
+  <si>
+    <t>0.173+/-0.043</t>
+  </si>
+  <si>
+    <t>0.961+/-0.032</t>
+  </si>
+  <si>
+    <t>0.583+/-0.221</t>
+  </si>
+  <si>
+    <t>0.975+/-0.026</t>
+  </si>
+  <si>
+    <t>0.667+/-0.351</t>
+  </si>
+  <si>
+    <t>0.617+/-0.189</t>
+  </si>
+  <si>
+    <t>0.516+/-0.203</t>
+  </si>
+  <si>
+    <t>0.741+/-0.058</t>
+  </si>
+  <si>
+    <t>0.55+/-0.315</t>
+  </si>
+  <si>
+    <t>0.936+/-0.034</t>
+  </si>
+  <si>
+    <t>0.875+/-0.137</t>
+  </si>
+  <si>
+    <t>0.553+/-0.083</t>
+  </si>
+  <si>
+    <t>0.589+/-0.08</t>
+  </si>
+  <si>
+    <t>0.7+/-0.068</t>
+  </si>
+  <si>
+    <t>0.457+/-0.19</t>
+  </si>
+  <si>
+    <t>0.799+/-0.06</t>
+  </si>
+  <si>
+    <t>0.615+/-0.137</t>
+  </si>
+  <si>
+    <t>0.798+/-0.156</t>
+  </si>
+  <si>
+    <t>0.897+/-0.08</t>
+  </si>
+  <si>
+    <t>0.823+/-0.05</t>
+  </si>
+  <si>
+    <t>0.81+/-0.123</t>
+  </si>
+  <si>
+    <t>0.828+/-0.157</t>
+  </si>
+  <si>
+    <t>0.641+/-0.119</t>
+  </si>
+  <si>
+    <t>0.92+/-0.053</t>
+  </si>
+  <si>
+    <t>0.661+/-0.111</t>
+  </si>
+  <si>
+    <t>0.628+/-0.035</t>
+  </si>
+  <si>
+    <t>0.912+/-0.046</t>
+  </si>
+  <si>
+    <t>0.483+/-0.074</t>
+  </si>
+  <si>
+    <t>0.831+/-0.06</t>
+  </si>
+  <si>
+    <t>0.819+/-0.137</t>
+  </si>
+  <si>
+    <t>0.775+/-0.226</t>
+  </si>
+  <si>
+    <t>0.796+/-0.214</t>
+  </si>
+  <si>
+    <t>0.799+/-0.106</t>
+  </si>
+  <si>
+    <t>0.964+/-0.042</t>
+  </si>
+  <si>
+    <t>0.937+/-0.097</t>
+  </si>
+  <si>
+    <t>0.802+/-0.132</t>
+  </si>
+  <si>
+    <t>0.567+/-0.238</t>
+  </si>
+  <si>
+    <t>0.821+/-0.076</t>
+  </si>
+  <si>
+    <t>0.87+/-0.072</t>
+  </si>
+  <si>
+    <t>0.529+/-0.066</t>
+  </si>
+  <si>
+    <t>0.593+/-0.066</t>
+  </si>
+  <si>
+    <t>0.761+/-0.113</t>
+  </si>
+  <si>
+    <t>0.757+/-0.079</t>
+  </si>
+  <si>
+    <t>0.893+/-0.047</t>
+  </si>
+  <si>
+    <t>0.916+/-0.123</t>
+  </si>
+  <si>
+    <t>0.909+/-0.09</t>
+  </si>
+  <si>
+    <t>0.673+/-0.065</t>
+  </si>
+  <si>
+    <t>0.762+/-0.053</t>
+  </si>
+  <si>
+    <t>0.881+/-0.08</t>
+  </si>
+  <si>
+    <t>0.774+/-0.113</t>
+  </si>
+  <si>
+    <t>0.582+/-0.088</t>
+  </si>
+  <si>
+    <t>0.757+/-0.072</t>
+  </si>
+  <si>
+    <t>0.729+/-0.096</t>
+  </si>
+  <si>
+    <t>0.683+/-0.103</t>
+  </si>
+  <si>
+    <t>0.451+/-0.03</t>
+  </si>
+  <si>
+    <t>0.531+/-0.069</t>
+  </si>
+  <si>
+    <t>0.959+/-0.024</t>
+  </si>
+  <si>
+    <t>0.751+/-0.04</t>
+  </si>
+  <si>
+    <t>0.973+/-0.007</t>
+  </si>
+  <si>
+    <t>0.723+/-0.176</t>
+  </si>
+  <si>
+    <t>0.863+/-0.06</t>
+  </si>
+  <si>
+    <t>0.518+/-0.122</t>
+  </si>
+  <si>
+    <t>0.575+/-0.058</t>
+  </si>
+  <si>
+    <t>0.167+/-0.093</t>
+  </si>
+  <si>
+    <t>0.43+/-0.079</t>
+  </si>
+  <si>
+    <t>0.657+/-0.062</t>
+  </si>
+  <si>
+    <t>0.626+/-0.072</t>
+  </si>
+  <si>
+    <t>0.605+/-0.074</t>
+  </si>
+  <si>
+    <t>0.651+/-0.077</t>
+  </si>
+  <si>
+    <t>0.975+/-0.04</t>
+  </si>
+  <si>
+    <t>0.715+/-0.092</t>
+  </si>
+  <si>
+    <t>0.59+/-0.082</t>
+  </si>
+  <si>
+    <t>0.772+/-0.16</t>
+  </si>
+  <si>
+    <t>0.882+/-0.042</t>
+  </si>
+  <si>
+    <t>0.786+/-0.037</t>
+  </si>
+  <si>
+    <t>0.818+/-0.08</t>
+  </si>
+  <si>
+    <t>0.763+/-0.056</t>
+  </si>
+  <si>
+    <t>0.835+/-0.043</t>
+  </si>
+  <si>
+    <t>0.767+/-0.095</t>
+  </si>
+  <si>
+    <t>0.561+/-0.091</t>
+  </si>
+  <si>
+    <t>0.733+/-0.2</t>
+  </si>
+  <si>
+    <t>0.597+/-0.087</t>
+  </si>
+  <si>
+    <t>0.837+/-0.026</t>
+  </si>
+  <si>
+    <t>0.757+/-0.063</t>
+  </si>
+  <si>
+    <t>0.847+/-0.096</t>
+  </si>
+  <si>
+    <t>0.835+/-0.074</t>
+  </si>
+  <si>
+    <t>0.92+/-0.103</t>
+  </si>
+  <si>
+    <t>0.677+/-0.1</t>
+  </si>
+  <si>
+    <t>0.725+/-0.092</t>
+  </si>
+  <si>
+    <t>0.882+/-0.06</t>
+  </si>
+  <si>
+    <t>0.458+/-0.03</t>
+  </si>
+  <si>
+    <t>0.751+/-0.035</t>
+  </si>
+  <si>
+    <t>0.55+/-0.249</t>
+  </si>
+  <si>
+    <t>0.909+/-0.065</t>
+  </si>
+  <si>
+    <t>0.782+/-0.073</t>
+  </si>
+  <si>
+    <t>0.742+/-0.076</t>
+  </si>
+  <si>
+    <t>0.797+/-0.088</t>
+  </si>
+  <si>
+    <t>0.906+/-0.134</t>
+  </si>
+  <si>
+    <t>0.775+/-0.168</t>
+  </si>
+  <si>
+    <t>0.972+/-0.064</t>
   </si>
 </sst>
 </file>
@@ -2565,13 +3576,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H196"/>
+  <dimension ref="A1:J196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2593,13 +3604,19 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>0.5</v>
@@ -2610,22 +3627,28 @@
       <c r="E2" s="2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>202</v>
+      <c r="F2" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>559</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
         <v>0.8229166666666667</v>
@@ -2637,21 +3660,27 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>389</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2">
         <v>0.8958333333333333</v>
@@ -2663,21 +3692,27 @@
         <v>0.9047619047619048</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>390</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2">
         <v>0.6770833333333333</v>
@@ -2689,21 +3724,27 @@
         <v>0.8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>561</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2">
         <v>0.3791666666666667</v>
@@ -2715,21 +3756,27 @@
         <v>0.3461538461538461</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>562</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2">
         <v>0.8229166666666667</v>
@@ -2740,22 +3787,28 @@
       <c r="E7" s="2">
         <v>0.8333333333333334</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>207</v>
+      <c r="F7" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>563</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>0.5</v>
@@ -2767,21 +3820,27 @@
         <v>0.5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>564</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2">
         <v>0.5</v>
@@ -2792,22 +3851,28 @@
       <c r="E9" s="2">
         <v>0.5</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>209</v>
+      <c r="F9" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>226</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2">
         <v>0.5</v>
@@ -2819,21 +3884,27 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>395</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2">
         <v>0.8958333333333333</v>
@@ -2845,21 +3916,27 @@
         <v>0.9032258064516128</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>567</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2">
         <v>0.1770833333333333</v>
@@ -2871,21 +3948,27 @@
         <v>0.1875</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
         <v>0.5</v>
@@ -2896,22 +3979,28 @@
       <c r="E13" s="2">
         <v>0.4705882352941176</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>213</v>
+      <c r="F13" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>568</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2">
         <v>0.5729166666666667</v>
@@ -2923,21 +4012,27 @@
         <v>0.5238095238095238</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>569</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2">
         <v>0.5</v>
@@ -2949,21 +4044,27 @@
         <v>0.5</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>400</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2">
         <v>0.6770833333333333</v>
@@ -2975,21 +4076,27 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2">
         <v>0.5</v>
@@ -3001,21 +4108,27 @@
         <v>0.5</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>402</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2">
         <v>0.5</v>
@@ -3027,21 +4140,27 @@
         <v>0.5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>572</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2">
         <v>0.5</v>
@@ -3053,21 +4172,27 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>404</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2">
         <v>0.4270833333333334</v>
@@ -3079,21 +4204,27 @@
         <v>0.4230769230769231</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>405</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2">
         <v>0.6291666666666667</v>
@@ -3104,22 +4235,28 @@
       <c r="E21" s="2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>221</v>
+      <c r="F21" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>575</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2">
         <v>0.3791666666666667</v>
@@ -3131,21 +4268,27 @@
         <v>0.5</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2">
         <v>0.4270833333333334</v>
@@ -3157,21 +4300,27 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>405</v>
+        <v>224</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>576</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C24" s="2">
         <v>0.5</v>
@@ -3182,22 +4331,28 @@
       <c r="E24" s="2">
         <v>0.4444444444444445</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>223</v>
+      <c r="F24" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>577</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C25" s="2">
         <v>0.6291666666666667</v>
@@ -3209,21 +4364,27 @@
         <v>0.5</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C26" s="2">
         <v>0.25</v>
@@ -3235,21 +4396,27 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>578</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C27" s="2">
         <v>0.6291666666666667</v>
@@ -3261,21 +4428,27 @@
         <v>0.625</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>579</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C28" s="2">
         <v>0.5</v>
@@ -3287,21 +4460,27 @@
         <v>0.5</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>409</v>
+        <v>229</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>580</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C29" s="2">
         <v>0.5</v>
@@ -3312,22 +4491,28 @@
       <c r="E29" s="2">
         <v>0.5</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>228</v>
+      <c r="F29" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>581</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C30" s="2">
         <v>0.5729166666666667</v>
@@ -3339,21 +4524,27 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>411</v>
+        <v>231</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>582</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C31" s="2">
         <v>0.4270833333333334</v>
@@ -3365,21 +4556,27 @@
         <v>0.4</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>564</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C32" s="2">
         <v>0.4270833333333334</v>
@@ -3391,21 +4588,27 @@
         <v>0.4</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>583</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C33" s="2">
         <v>0.5729166666666667</v>
@@ -3417,21 +4620,27 @@
         <v>0.5</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>415</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C34" s="2">
         <v>0.5</v>
@@ -3443,21 +4652,27 @@
         <v>0.5</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>416</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C35" s="2">
         <v>0.3229166666666666</v>
@@ -3469,21 +4684,27 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>415</v>
+        <v>236</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>586</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C36" s="2">
         <v>0.3229166666666666</v>
@@ -3495,21 +4716,27 @@
         <v>0.25</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>587</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C37" s="2">
         <v>0.5</v>
@@ -3521,21 +4748,27 @@
         <v>0.5</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>417</v>
+        <v>238</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>588</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2">
         <v>0.3791666666666667</v>
@@ -3547,21 +4780,27 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>589</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C39" s="2">
         <v>0.6291666666666667</v>
@@ -3572,22 +4811,28 @@
       <c r="E39" s="2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>238</v>
+      <c r="F39" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>590</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2">
         <v>0.6770833333333333</v>
@@ -3599,21 +4844,27 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>591</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2">
         <v>0.5</v>
@@ -3624,22 +4875,28 @@
       <c r="E41" s="2">
         <v>0.4</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>240</v>
+      <c r="F41" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>592</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2">
         <v>0.5</v>
@@ -3651,21 +4908,27 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>593</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C43" s="2">
         <v>0.25</v>
@@ -3677,21 +4940,27 @@
         <v>0.2608695652173913</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>594</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C44" s="2">
         <v>0.6291666666666667</v>
@@ -3703,21 +4972,27 @@
         <v>0.5</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>209</v>
+        <v>226</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>559</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C45" s="2">
         <v>0.5</v>
@@ -3729,21 +5004,27 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>576</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C46" s="2">
         <v>0.6291666666666667</v>
@@ -3755,21 +5036,27 @@
         <v>0.6</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>595</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C47" s="2">
         <v>0.8229166666666667</v>
@@ -3781,21 +5068,27 @@
         <v>0.7647058823529411</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>596</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2">
         <v>0.5</v>
@@ -3807,21 +5100,27 @@
         <v>0.4615384615384615</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>597</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2">
         <v>0.5</v>
@@ -3833,21 +5132,27 @@
         <v>0.5</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>598</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2">
         <v>0.5</v>
@@ -3859,21 +5164,27 @@
         <v>0.4736842105263157</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>599</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2">
         <v>0.8958333333333333</v>
@@ -3885,21 +5196,27 @@
         <v>0.8648648648648649</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>431</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2">
         <v>0.5</v>
@@ -3911,21 +5228,27 @@
         <v>0.5</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>601</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2">
         <v>0.5729166666666667</v>
@@ -3936,22 +5259,28 @@
       <c r="E53" s="2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>251</v>
+      <c r="F53" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>602</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2">
         <v>0.3229166666666666</v>
@@ -3962,22 +5291,28 @@
       <c r="E54" s="2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>252</v>
+      <c r="F54" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>603</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2">
         <v>0.8958333333333333</v>
@@ -3989,21 +5324,27 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2">
         <v>0.4270833333333334</v>
@@ -4015,21 +5356,27 @@
         <v>0.4761904761904761</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>604</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2">
         <v>0.5</v>
@@ -4041,21 +5388,27 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2">
         <v>0.75</v>
@@ -4067,21 +5420,27 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>605</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2">
         <v>0.4270833333333334</v>
@@ -4093,21 +5452,27 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>606</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2">
         <v>0.5</v>
@@ -4119,21 +5484,27 @@
         <v>0.48</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>607</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2">
         <v>0.75</v>
@@ -4144,22 +5515,28 @@
       <c r="E61" s="2">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>258</v>
+      <c r="F61" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>608</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2">
         <v>0.5</v>
@@ -4171,21 +5548,27 @@
         <v>0.5</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>609</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C63" s="2">
         <v>0.6291666666666667</v>
@@ -4197,21 +5580,27 @@
         <v>0.5</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C64" s="2">
         <v>0.75</v>
@@ -4222,22 +5611,28 @@
       <c r="E64" s="2">
         <v>0.7741935483870968</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>261</v>
+      <c r="F64" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>610</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C65" s="2">
         <v>0.6291666666666667</v>
@@ -4249,21 +5644,27 @@
         <v>0.6521739130434783</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>611</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C66" s="2">
         <v>0.25</v>
@@ -4275,21 +5676,27 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>612</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C67" s="2">
         <v>0.5</v>
@@ -4301,21 +5708,27 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>613</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C68" s="2">
         <v>0.8229166666666667</v>
@@ -4327,21 +5740,27 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>614</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C69" s="2">
         <v>0.75</v>
@@ -4353,21 +5772,27 @@
         <v>0.7</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>615</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C70" s="2">
         <v>0.6770833333333333</v>
@@ -4378,22 +5803,28 @@
       <c r="E70" s="2">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>267</v>
+      <c r="F70" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>616</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C71" s="2">
         <v>0.1041666666666667</v>
@@ -4405,21 +5836,27 @@
         <v>0.1320754716981132</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>617</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C72" s="2">
         <v>0.5</v>
@@ -4430,22 +5867,28 @@
       <c r="E72" s="2">
         <v>0.4769230769230769</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>269</v>
+      <c r="F72" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>618</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C73" s="2">
         <v>0.5</v>
@@ -4457,21 +5900,27 @@
         <v>0.5</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>450</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C74" s="2">
         <v>0.6291666666666667</v>
@@ -4483,21 +5932,27 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>620</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C75" s="2">
         <v>0.8958333333333333</v>
@@ -4509,21 +5964,27 @@
         <v>0.875</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>452</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C76" s="2">
         <v>0.6770833333333333</v>
@@ -4535,21 +5996,27 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>622</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C77" s="2">
         <v>0.5</v>
@@ -4561,21 +6028,27 @@
         <v>0.5</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>623</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C78" s="2">
         <v>0.5</v>
@@ -4587,21 +6060,27 @@
         <v>0.5</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>624</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C79" s="2">
         <v>0.1041666666666667</v>
@@ -4613,21 +6092,27 @@
         <v>0.1</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>625</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C80" s="2">
         <v>0.8958333333333333</v>
@@ -4639,21 +6124,27 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>626</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C81" s="2">
         <v>0.5</v>
@@ -4665,21 +6156,27 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>627</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C82" s="2">
         <v>0.5</v>
@@ -4691,21 +6188,27 @@
         <v>0.5</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>341</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C83" s="2">
         <v>0.5</v>
@@ -4717,21 +6220,27 @@
         <v>0.5</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>564</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C84" s="2">
         <v>0.5</v>
@@ -4742,22 +6251,28 @@
       <c r="E84" s="2">
         <v>0.4</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>281</v>
+      <c r="F84" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>628</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C85" s="2">
         <v>0.75</v>
@@ -4768,22 +6283,28 @@
       <c r="E85" s="2">
         <v>0.8</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>282</v>
+      <c r="F85" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>629</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C86" s="2">
         <v>0.1041666666666667</v>
@@ -4795,21 +6316,27 @@
         <v>0.0714285714285714</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>461</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C87" s="2">
         <v>0.5</v>
@@ -4821,21 +6348,27 @@
         <v>0.5</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>631</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C88" s="2">
         <v>0.5</v>
@@ -4847,21 +6380,27 @@
         <v>0.4</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>632</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C89" s="2">
         <v>0.5</v>
@@ -4873,21 +6412,27 @@
         <v>0.5</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>633</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C90" s="2">
         <v>0.5</v>
@@ -4899,21 +6444,27 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>559</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C91" s="2">
         <v>0.5</v>
@@ -4925,21 +6476,27 @@
         <v>0.5</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>634</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C92" s="2">
         <v>0.6770833333333333</v>
@@ -4951,21 +6508,27 @@
         <v>0.75</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>635</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C93" s="2">
         <v>0.5</v>
@@ -4977,21 +6540,27 @@
         <v>0.5</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>636</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C94" s="2">
         <v>0.3791666666666667</v>
@@ -5003,21 +6572,27 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>637</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C95" s="2">
         <v>0.5</v>
@@ -5028,22 +6603,28 @@
       <c r="E95" s="2">
         <v>0.4705882352941176</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>292</v>
+      <c r="F95" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>638</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C96" s="2">
         <v>0.1770833333333333</v>
@@ -5055,21 +6636,27 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>639</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C97" s="2">
         <v>0.6770833333333333</v>
@@ -5080,22 +6667,28 @@
       <c r="E97" s="2">
         <v>0.6</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>294</v>
+      <c r="F97" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>640</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C98" s="2">
         <v>0.75</v>
@@ -5107,21 +6700,27 @@
         <v>0.7058823529411765</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>641</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C99" s="2">
         <v>0.5729166666666667</v>
@@ -5133,21 +6732,27 @@
         <v>0.5384615384615384</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>642</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C100" s="2">
         <v>0.5</v>
@@ -5159,21 +6764,27 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>475</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C101" s="2">
         <v>0.5</v>
@@ -5185,21 +6796,27 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>644</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C102" s="2">
         <v>0.6770833333333333</v>
@@ -5211,21 +6828,27 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>645</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C103" s="2">
         <v>0.5</v>
@@ -5237,21 +6860,27 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>646</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C104" s="2">
         <v>0.4270833333333334</v>
@@ -5263,21 +6892,27 @@
         <v>0.5</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>647</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C105" s="2">
         <v>0.5</v>
@@ -5289,21 +6924,27 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>480</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2">
         <v>0.6291666666666667</v>
@@ -5315,21 +6956,27 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>649</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C107" s="2">
         <v>0.5</v>
@@ -5341,21 +6988,27 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>650</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C108" s="2">
         <v>0.5</v>
@@ -5367,21 +7020,27 @@
         <v>0.4651162790697674</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>483</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C109" s="2">
         <v>0.8229166666666667</v>
@@ -5393,21 +7052,27 @@
         <v>0.8</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>652</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C110" s="2">
         <v>0.5</v>
@@ -5419,21 +7084,27 @@
         <v>0.5</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>653</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C111" s="2">
         <v>0.8229166666666667</v>
@@ -5445,21 +7116,27 @@
         <v>0.8461538461538461</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>654</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C112" s="2">
         <v>0.8229166666666667</v>
@@ -5471,21 +7148,27 @@
         <v>0.75</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>655</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C113" s="2">
         <v>0.8229166666666667</v>
@@ -5496,22 +7179,28 @@
       <c r="E113" s="2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F113" s="3" t="s">
-        <v>310</v>
+      <c r="F113" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>656</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C114" s="2">
         <v>0.5729166666666667</v>
@@ -5523,21 +7212,27 @@
         <v>0.5</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>657</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C115" s="2">
         <v>0.5</v>
@@ -5549,21 +7244,27 @@
         <v>0.6</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>658</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C116" s="2">
         <v>0.8229166666666667</v>
@@ -5575,21 +7276,27 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>659</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C117" s="2">
         <v>0.75</v>
@@ -5601,21 +7308,27 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>660</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C118" s="2">
         <v>0.8229166666666667</v>
@@ -5626,22 +7339,28 @@
       <c r="E118" s="2">
         <v>0.75</v>
       </c>
-      <c r="F118" s="3" t="s">
-        <v>315</v>
+      <c r="F118" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>661</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C119" s="2">
         <v>0.6770833333333333</v>
@@ -5653,21 +7372,27 @@
         <v>0.8</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>662</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C120" s="2">
         <v>0.8958333333333333</v>
@@ -5679,21 +7404,27 @@
         <v>0.8</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>663</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C121" s="2">
         <v>0.3229166666666666</v>
@@ -5705,21 +7436,27 @@
         <v>0.5</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>565</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C122" s="2">
         <v>0.5</v>
@@ -5731,21 +7468,27 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>576</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C123" s="2">
         <v>0.8229166666666667</v>
@@ -5757,21 +7500,27 @@
         <v>0.8</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>664</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C124" s="2">
         <v>0.5</v>
@@ -5782,22 +7531,28 @@
       <c r="E124" s="2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="F124" s="3" t="s">
-        <v>319</v>
+      <c r="F124" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>665</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C125" s="2">
         <v>0.8229166666666667</v>
@@ -5809,21 +7564,27 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>666</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C126" s="2">
         <v>0.75</v>
@@ -5835,21 +7596,27 @@
         <v>0.5</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>559</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C127" s="2">
         <v>0.5</v>
@@ -5861,21 +7628,27 @@
         <v>0.5</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>667</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C128" s="2">
         <v>0.5</v>
@@ -5887,21 +7660,27 @@
         <v>0.5</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>497</v>
+        <v>324</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>499</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>668</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C129" s="2">
         <v>0.5</v>
@@ -5913,21 +7692,27 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>669</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C130" s="2">
         <v>0.6291666666666667</v>
@@ -5939,21 +7724,27 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>670</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C131" s="2">
         <v>0.6291666666666667</v>
@@ -5965,21 +7756,27 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="H131" s="3" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>502</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C132" s="2">
         <v>0.8958333333333333</v>
@@ -5991,21 +7788,27 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>672</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C133" s="2">
         <v>0.8229166666666667</v>
@@ -6017,21 +7820,27 @@
         <v>0.888888888888889</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>673</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C134" s="2">
         <v>0.8229166666666667</v>
@@ -6043,21 +7852,27 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>502</v>
+        <v>330</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>504</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>674</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C135" s="2">
         <v>0.5</v>
@@ -6068,22 +7883,28 @@
       <c r="E135" s="2">
         <v>0.4888888888888888</v>
       </c>
-      <c r="F135" s="3" t="s">
-        <v>329</v>
+      <c r="F135" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>675</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C136" s="2">
         <v>0.5</v>
@@ -6095,21 +7916,27 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>504</v>
+        <v>332</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>506</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>676</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C137" s="2">
         <v>0.5729166666666667</v>
@@ -6121,21 +7948,27 @@
         <v>0.5</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="H137" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>507</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C138" s="2">
         <v>0.5729166666666667</v>
@@ -6147,21 +7980,27 @@
         <v>0.5263157894736842</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>678</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C139" s="2">
         <v>0.75</v>
@@ -6173,21 +8012,27 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>679</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C140" s="2">
         <v>0.5</v>
@@ -6199,21 +8044,27 @@
         <v>0.4705882352941176</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>680</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C141" s="2">
         <v>0.5</v>
@@ -6225,21 +8076,27 @@
         <v>0.5</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>559</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C142" s="2">
         <v>0.5</v>
@@ -6251,21 +8108,27 @@
         <v>0.4705882352941176</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>681</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C143" s="2">
         <v>0.5</v>
@@ -6276,22 +8139,28 @@
       <c r="E143" s="2">
         <v>0.4782608695652174</v>
       </c>
-      <c r="F143" s="3" t="s">
-        <v>336</v>
+      <c r="F143" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>512</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C144" s="2">
         <v>0.5</v>
@@ -6303,21 +8172,27 @@
         <v>0.5</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>683</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C145" s="2">
         <v>0.8229166666666667</v>
@@ -6329,21 +8204,27 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>684</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C146" s="2">
         <v>0.6770833333333333</v>
@@ -6355,21 +8236,27 @@
         <v>0.5</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C147" s="2">
         <v>0.3229166666666666</v>
@@ -6380,22 +8267,28 @@
       <c r="E147" s="2">
         <v>0.5</v>
       </c>
-      <c r="F147" s="3" t="s">
-        <v>339</v>
+      <c r="F147" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>685</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C148" s="2">
         <v>0.5</v>
@@ -6407,21 +8300,27 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>686</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C149" s="2">
         <v>0.8958333333333333</v>
@@ -6433,21 +8332,27 @@
         <v>0.9285714285714285</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>687</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C150" s="2">
         <v>0.6291666666666667</v>
@@ -6459,21 +8364,27 @@
         <v>0.6</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>688</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C151" s="2">
         <v>0.5</v>
@@ -6485,21 +8396,27 @@
         <v>0.5</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>689</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C152" s="2">
         <v>0.3791666666666667</v>
@@ -6511,21 +8428,27 @@
         <v>0.3571428571428571</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>690</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C153" s="2">
         <v>0.4270833333333334</v>
@@ -6537,21 +8460,27 @@
         <v>0.4193548387096774</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>691</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C154" s="2">
         <v>0.1041666666666667</v>
@@ -6563,21 +8492,27 @@
         <v>0.1052631578947368</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>692</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C155" s="2">
         <v>0.3229166666666666</v>
@@ -6589,21 +8524,27 @@
         <v>0.3142857142857143</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>693</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C156" s="2">
         <v>0.3791666666666667</v>
@@ -6615,21 +8556,27 @@
         <v>0.409090909090909</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>694</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C157" s="2">
         <v>0.4270833333333334</v>
@@ -6641,21 +8588,27 @@
         <v>0.4468085106382978</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>695</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C158" s="2">
         <v>0.5</v>
@@ -6667,21 +8620,27 @@
         <v>0.4705882352941176</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>696</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C159" s="2">
         <v>0.5</v>
@@ -6693,21 +8652,27 @@
         <v>0.5</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>697</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C160" s="2">
         <v>0.3791666666666667</v>
@@ -6719,21 +8684,27 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>698</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C161" s="2">
         <v>0.5</v>
@@ -6745,21 +8716,27 @@
         <v>0.4857142857142856</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>699</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C162" s="2">
         <v>0.5</v>
@@ -6771,21 +8748,27 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>700</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C163" s="2">
         <v>0.5</v>
@@ -6797,21 +8780,27 @@
         <v>0.5</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>701</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C164" s="2">
         <v>0.5</v>
@@ -6822,22 +8811,28 @@
       <c r="E164" s="2">
         <v>0.4864864864864865</v>
       </c>
-      <c r="F164" s="3" t="s">
-        <v>356</v>
+      <c r="F164" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>702</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C165" s="2">
         <v>0.5</v>
@@ -6848,22 +8843,28 @@
       <c r="E165" s="2">
         <v>0.5</v>
       </c>
-      <c r="F165" s="3" t="s">
-        <v>357</v>
+      <c r="F165" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>703</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C166" s="2">
         <v>0.5</v>
@@ -6874,22 +8875,28 @@
       <c r="E166" s="2">
         <v>0.5</v>
       </c>
-      <c r="F166" s="3" t="s">
-        <v>358</v>
+      <c r="F166" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>704</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C167" s="2">
         <v>0.5</v>
@@ -6901,21 +8908,27 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="H167" s="3" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>534</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C168" s="2">
         <v>0.5</v>
@@ -6926,22 +8939,28 @@
       <c r="E168" s="2">
         <v>0.5</v>
       </c>
-      <c r="F168" s="3" t="s">
-        <v>360</v>
+      <c r="F168" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>706</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C169" s="2">
         <v>0.5</v>
@@ -6953,21 +8972,27 @@
         <v>0.5</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C170" s="2">
         <v>0.6770833333333333</v>
@@ -6979,21 +9004,27 @@
         <v>0.75</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="H170" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>536</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C171" s="2">
         <v>0.5</v>
@@ -7005,21 +9036,27 @@
         <v>0.4615384615384615</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>708</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C172" s="2">
         <v>0.5</v>
@@ -7031,21 +9068,27 @@
         <v>0.4</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>709</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C173" s="2">
         <v>0.3229166666666666</v>
@@ -7057,21 +9100,27 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>710</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C174" s="2">
         <v>0.5</v>
@@ -7082,22 +9131,28 @@
       <c r="E174" s="2">
         <v>0.5161290322580645</v>
       </c>
-      <c r="F174" s="3" t="s">
-        <v>365</v>
+      <c r="F174" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>711</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C175" s="2">
         <v>0.8229166666666667</v>
@@ -7109,21 +9164,27 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>712</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="J175" s="2" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C176" s="2">
         <v>0.5</v>
@@ -7135,21 +9196,27 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>713</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="J176" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C177" s="2">
         <v>0.6770833333333333</v>
@@ -7160,22 +9227,28 @@
       <c r="E177" s="2">
         <v>0.6923076923076923</v>
       </c>
-      <c r="F177" s="3" t="s">
-        <v>368</v>
+      <c r="F177" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>714</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C178" s="2">
         <v>0.5</v>
@@ -7187,21 +9260,27 @@
         <v>0.5</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>715</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="J178" s="2" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C179" s="2">
         <v>0.3791666666666667</v>
@@ -7212,22 +9291,28 @@
       <c r="E179" s="2">
         <v>0.375</v>
       </c>
-      <c r="F179" s="3" t="s">
-        <v>370</v>
+      <c r="F179" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>716</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C180" s="2">
         <v>0.5</v>
@@ -7239,21 +9324,27 @@
         <v>0.4615384615384615</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>717</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C181" s="2">
         <v>0.5</v>
@@ -7265,21 +9356,27 @@
         <v>0.52</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>718</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C182" s="2">
         <v>0.8229166666666667</v>
@@ -7291,21 +9388,27 @@
         <v>0.8125</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>719</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="J182" s="2" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C183" s="2">
         <v>0.5</v>
@@ -7317,21 +9420,27 @@
         <v>0.4878048780487805</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>720</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C184" s="2">
         <v>0.4270833333333334</v>
@@ -7343,21 +9452,27 @@
         <v>0.5</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>721</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="J184" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C185" s="2">
         <v>0.75</v>
@@ -7369,21 +9484,27 @@
         <v>0.5</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>685</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J185" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C186" s="2">
         <v>0.8958333333333333</v>
@@ -7395,21 +9516,27 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="H186" s="3" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>551</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C187" s="2">
         <v>0.5</v>
@@ -7421,21 +9548,27 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>565</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C188" s="2">
         <v>0.6291666666666667</v>
@@ -7447,21 +9580,27 @@
         <v>0.6</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="H188" s="3" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>552</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="J188" s="3" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C189" s="2">
         <v>0.5</v>
@@ -7473,21 +9612,27 @@
         <v>0.4857142857142856</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>724</v>
+      </c>
+      <c r="I189" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="J189" s="2" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C190" s="2">
         <v>0.5</v>
@@ -7499,21 +9644,27 @@
         <v>0.5</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>725</v>
+      </c>
+      <c r="I190" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="J190" s="2" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C191" s="2">
         <v>0.75</v>
@@ -7525,21 +9676,27 @@
         <v>0.7096774193548387</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>726</v>
+      </c>
+      <c r="I191" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="J191" s="2" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C192" s="2">
         <v>0.75</v>
@@ -7551,21 +9708,27 @@
         <v>0.8</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>727</v>
+      </c>
+      <c r="I192" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="J192" s="2" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C193" s="2">
         <v>0.8229166666666667</v>
@@ -7577,21 +9740,27 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I193" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="J193" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C194" s="2">
         <v>0.5</v>
@@ -7603,21 +9772,27 @@
         <v>0.5</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="H194" s="3" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>557</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="J194" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C195" s="2">
         <v>0.5</v>
@@ -7629,21 +9804,27 @@
         <v>0.5</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>565</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J195" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C196" s="2">
         <v>0.5</v>
@@ -7655,13 +9836,19 @@
         <v>0.5</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="G196" s="3" t="s">
-        <v>556</v>
+        <v>387</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="J196" s="3" t="s">
+        <v>1064</v>
       </c>
     </row>
   </sheetData>
